--- a/finetuning/it_datasets/qa_dataset/qa_it_chebba_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_chebba_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,13 +664,61 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a cozy spot, visit Cafe Casino located at 64RQ+MRV. This top-rated destination is perfect for coffee lovers. With a rating of 4.0, it's a must-visit spot. For more details, visit the link below:
-https://www.google.com/maps/place/Cafe+Casino/data=!4m7!3m6!1s0x13018f3508613343:0x231ee658e46b2d1c!8m2!3d35.2417475!4d11.1395588!16s%2Fg%2F11hzrnf8zg!19sChIJQzNhCDWPARMRHC1r5FjmHiM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Casino, located in Chebba (35.2418284, 11.1394077), is a popular cafe with a 4.0 rating. It boasts a cozy atmosphere and offers a variety of coffee and tea options, along with delectable pastries and a selection of light bites. Cafe Casino is a great spot to relax, socialize, or simply enjoy a delicious cup of coffee.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated coffee shop in Chebba, and what is its location?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Sample local cuisine at MY STORY Coffee Resto, a highly-rated tea room and restaurant offering breakfast options and local delicacies.
+Midday: Visit Plage SIR, a museum showcasing the local culture and history.
+Afternoon: Relax and enjoy the scenic views at Cire Plage Chebba, a captivating beach club offering exceptional service and delectable cuisine.
+Evening: Head to Port De Peche la Chebba, a marina with a restaurant, and enjoy a delightful dinner with stunning waterfront views.
+Night: Experience cultural immersion at Plage SIR, a museum located on the beach, and engage in local cultural activities.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Cabane is a restaurant located in 64P7+QC5 La Cabane, Chebba, with coordinates (35.2340156, 11.1138593). It is open from 14:00-02:00 and has a 4.8 rating based on 5 reviews. La Cabane offers a variety of dishes and has a focus on providing a great dining experience.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -775,12 +828,61 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out MY STORY Coffee Resto located at Rue de port 150m de, Borj Khadija, Chebba 5170. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the and Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at https://www.facebook.com/mystory.coffee.resto1/ or call them at 22 153 154.</t>
+          <t>MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>What top-rated Salon de the and Restaurant destination can be found at Rue de port 150m de, Borj Khadija, Chebba 5170?</t>
+          <t>Day Plan:
+Morning: Exploring the historical landmark of Borj Khadija
+Mid-Morning: Trying local cuisine at the highly-rated MY STORY Coffee Resto
+Midday: Relaxing with a pastry treat at the 4.5-star Croissanterie Lilia
+Afternoon: Enjoying scenic views at Plage SIR and exploring its museum
+Evening: Participating in a guided tour of the Chebba 5170 school
+Night: Experiencing cultural immersion at Marche swq lHwt fish and seafood market</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe bougare is a cafe located in La Chebba, Tunisia. It has a rating of 5.0 stars on Google and is categorized as a cafe. Its exact location is at coordinates (35.23722, 11.115).
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -886,12 +988,61 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great place to eat, check out La Cantine Royale located at 64Q9+8MR La Cantine Royale, Unnamed Road, La Chebba. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-02:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/La+Cantine+Royale/data=!4m7!3m6!1s0x13018fcd7fc307c1:0x4349542b1a6956e6!8m2!3d35.2383575!4d11.119138!16s%2Fg%2F11g6_tv8ff!19sChIJwQfDf82PARMR5lZpGitUSUM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 463 996.</t>
+          <t>La Cantine Royale is a restaurant located on Unnamed Road in La Chebba. It offers a variety of dishes and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant is open from 13:00 to 02:00 and is closed on . La Cantine Royale is located at the coordinates (35.2340156, 11.1138593).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with various dining options and a convenient location in Chebba?</t>
+          <t>Day Plan:
+Morning: Exploring Chebba plage
+Mid-Morning: Trying local cuisine at La Cantine Royale
+Midday: Visiting Borj Khadija
+Afternoon: Enjoying swimming and sunbathing at Chebba plage
+Evening: Relaxing with a coffee or tea at this cafe, mqh~ lnsym
+Night: Experiencing cultural immersion at Plage SIR</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This cafe, mqh~ lnsym, is located in the city of chebba, Tunisia. It offers a cozy ambiance and a welcoming atmosphere, perfect for grabbing a coffee or tea and relaxing with friends. With a rating of 5.0 and four positive reviews, this cafe is highly recommended by its customers.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -989,12 +1140,61 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for some delicious pizza, head to Pizzeria Khadija located at 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba. This top-rated Pizzeria offers a range of pizzas to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Khadija/data=!4m7!3m6!1s0x13018f6fdf05e30b:0x7fdcad0e14bcef2c!8m2!3d35.2350865!4d11.1557533!16s%2Fg%2F11h4w9p9cb!19sChIJC-MF32-PARMRLO-8FA6t3H8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [number not provided].</t>
+          <t>Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Chebba is Pizzeria Khadija located, renowned for its exceptional pizza with GPS coordinates and a high rating?</t>
+          <t>Day Plan:
+Morning: Explore Chebba Plage, enjoying the sun, sand, and swimming opportunities.
+Mid-Morning: Visit Port de Chebba, a bustling harbor with a lively atmosphere and picturesque views.
+Midday: Savor a delicious local lunch at MY STORY Coffee Resto, known for its tasty dishes and friendly service.
+Afternoon: Immerse yourself in the historical significance of Borj Khadija, a well-preserved landmark that offers a glimpse into Chebba's past.
+Evening: Shop for souvenirs and local handicrafts at Marche swq lHwt, where you can find unique items to cherish your trip.
+Night: Relax and unwind at Cire Plage Chebba, a charming beach club with a vibrant ambiance, delicious cuisine, and the soothing sound of waves.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Paris Chebba is a cafe located in chebba, Tunisia. It is open from 5:00 AM to 12:00 AM and offers a variety of food and drinks. The cafe has a rating of 4.5 stars on Google Maps and is known for its friendly staff and great atmosphere.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1296,61 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out Cafe Jabeur located at 64M7+RC6 Cafe Jabeur, C82, Chebba. This top-rated destination is perfect for cafe lovers and has a rating of 4.0. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jabeur/data=!4m7!3m6!1s0x13018e2c61df3ed5:0xddf60eae5a856b74!8m2!3d35.234532!4d11.1135307!16s%2Fg%2F11cr_hw_vr!19sChIJ1T7fYSyOARMRdGuFWq4O9t0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Jabeur, located in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe that offers a welcoming atmosphere. With a rating of 4.0 based on 9 reviews, it's a great spot to relax and enjoy a delicious beverage. Cafe Jabeur is open from 6:00 AM to 11:00 PM, seven days a week.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a 4.0 rating and convenient operating hours of 06:00-23:00 in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the fascinating historical landmark, Borj Khadija, and delve into its cultural significance.
+Mid-Morning: Tantalize your taste buds with a delightful culinary experience at the highly-rated tea room and restaurant, MY STORY Coffee Resto.
+Midday: Immerse yourself in the lively atmosphere of Port de Chebba, a bustling port offering a range of amenities.
+Afternoon: Unwind and rejuvenate at the picturesque Cire Plage Chebba, a beach club known for its exceptional ambiance.
+Evening: Indulge in the delectable offerings of local cuisine at the renowned pizzeria, DEL CAPO, savoring its 4.5-star rating.
+Night: Explore the vibrant nightlife at Plage SIR, a museum known for its unique ambiance and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"La charlotte", cafe with a rating of 4.0, is located in La Chebba (lon: 29.99664, lat: -91.910214).
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1448,61 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in chebba, consider checking out restaurant le voilier located at 64QV+8MQ restaurant, Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 46.1414651, -1.1709801.</t>
+          <t>Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where should Restaurant lovers head to in Chebba for a highly-rated dining experience with a wide selection of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore Borj Khadija, a historical landmark with cultural significance and stunning architecture.
+Mid-Morning: Try local cuisine at Mqah El Nassim, a highly rated 5-star cafe known for its delicious food and drinks.
+Midday: Visit Marche swq lHwt, a fish and seafood market with a lively atmosphere and fresh seafood options.
+Afternoon: Relax with a guided tour of Plage SIR, a museum with a 4.6 rating, showcasing local history and culture.
+Evening: Enjoy dinner at Zang zanga, a restaurant with a 4.2 rating and a variety of dishes, offering a taste of the local cuisine.
+Night: Experience the ambiance of Cire Plage Chebba, a beach club with top-notch service and delectable cuisine, offering a picturesque setting to relax and rejuvenate.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mqah El Nassim** is a **5-star** cafe located in Chebba, Tunisia. It is known for its great service and delicious food and drinks that will keep you satisfied and wanting more. Geographically, it is located at coordinates (35.23722, 11.115).
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1604,61 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Paris Chebba located at Rue de la lybie, La Chebba 5170. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website or call them at .</t>
+          <t>Cafe Paris Chebba is a cafe located in chebba, Tunisia. It is open from 5:00 AM to 12:00 AM and offers a variety of food and drinks. The cafe has a rating of 4.5 stars on Google Maps and is known for its friendly staff and great atmosphere.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a diverse selection in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark, Borj Khadija.
+Mid-Morning: Visit the fish market, Marche swq lHwt, for a glimpse into local life and fresh seafood.
+Midday: Try local cuisine at Restaurant Le Voilier, known for its satisfying dining experience.
+Afternoon: Relax and enjoy the sun and sand at Chebba plage, a recreation ground with activities like swimming and sunbathing.
+Evening: Participate in the cultural immersion at Plage SIR, a museum showcasing local history and culture.
+Night: Experience the vibrant nightlife at Pizzeria CHALET, a pizzeria with excellent ratings and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Des Jeunes mqhy lshbb is a highly-rated cafe located in La Chebba. Open daily from 6 am to 10 pm, this cozy spot offers a warm and welcoming ambiance for patrons to relax and enjoy their favorite beverages. With a score of 4.8 out of 5 based on 4 reviews, this cafe has earned a reputation for its excellent service and quality offerings.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1760,61 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out The wave located at 65P2+X59 The wave, La Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a top-rated Cafe called The Wave, known for its exceptional offerings and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Borj Khadija.
+Mid-Morning: Visit the Plage SIR museum to uncover local history and culture.
+Midday: Savor authentic Tunisian flavors at MY STORY Coffee Resto, known for its delicious breakfast.
+Afternoon: Take a scenic stroll through Chebba plage, enjoying the sun, sand, and refreshing sea breeze.
+Evening: Immerse yourself in the cultural ambience of Bayethet chye7, a beach pavilion offering tranquility and rejuvenation.
+Night: Experience the vibrant nightlife at Cafe Paris Chebba, known for its friendly atmosphere and delectable cuisine.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Paris Chebba is a cafe located in chebba, Tunisia. It is open from 5:00 AM to 12:00 AM and offers a variety of food and drinks. The cafe has a rating of 4.5 stars on Google Maps and is known for its friendly staff and great atmosphere.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1912,61 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out La Belle Vue located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.673232, -93.519377. For more details, visit their website at https://www.google.com/maps/place/La+Belle+Vue/data=!4m7!3m6!1s0x13018f436204184d:0xae29ddc3151dc222!8m2!3d35.2498559!4d11.1252626!16s%2Fg%2F11hzymmn_w!19sChIJTRgEYkOPARMRIsIdFcPdKa4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a top-rated café with a 4.7 rating, offering a range of café options, and is highly recommended for its ambiance?</t>
+          <t>Day Plan:
+Morning: Start your morning by exploring the 4.8-star Borj Khadija, a historical landmark with stunning architecture and cultural significance.
+Mid-Morning: Indulge in local cuisine at Restaurant Le Voilier, a 4.1-star restaurant that offers a delectable dining experience.
+Midday: Take a stroll along the scenic Chebba plage, a recreation ground offering activities like swimming, sunbathing, and picnicking.
+Afternoon: Visit the 4.6-star MY STORY Coffee Resto, a tea room where you can relax and socialize while enjoying a variety of beverages and pastries.
+Evening: Engage in outdoor activities like hiking or biking at Cire Plage Chebba, a captivating beach destination with top-notch service and delectable cuisine.
+Night: Find souvenirs and local products at Marche swq lHwt, a fish and seafood market with a 3.9 rating.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Casino, located in Chebba (35.2418284, 11.1394077), is a popular cafe with a 4.0 rating. It boasts a cozy atmosphere and offers a variety of coffee and tea options, along with delectable pastries and a selection of light bites. Cafe Casino is a great spot to relax, socialize, or simply enjoy a delicious cup of coffee.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1627,15 +2072,61 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great dining experience, check out The King at 22 C82, Chebba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. 
-For more details, visit their website at https://www.facebook.com/The-King-105223425363666/ or call them at 22 856 636.</t>
+          <t>"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated dining destination with GPS coordinates 35.2340156, 11.1138593 in Chebba that caters to Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Exploring Borj Khadija, a historical landmark with cultural significance.
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto, a tea room rated 4.6 stars.
+Midday: Relaxing with a soothing spa treatment at Beach Lodge, a 4.4-star hotel.
+Afternoon: Enjoying a boat ride at Port De Peche la Chebba, a marina with excellent amenities.
+Evening: Engaging in a guided tour of Plage SIR, a museum showcasing local history.
+Night: Experiencing cultural immersion at Marche swq lHwt, a fish and seafood market offering a glimpse into local traditions.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located on Unnamed Road in La Chebba. It offers a variety of dishes and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant is open from 13:00 to 02:00 and is closed on . La Cantine Royale is located at the coordinates (35.2340156, 11.1138593).
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1741,12 +2232,67 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Restaurant, check out La Cabane located at 64P7+QC5 La Cabane, Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-02:00, but closed on [None]. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at [None] or call them at 58 896 898.</t>
+          <t>La Cabane is a restaurant located in 64P7+QC5 La Cabane, Chebba, with coordinates (35.2340156, 11.1138593). It is open from 14:00-02:00 and has a 4.8 rating based on 5 reviews. La Cabane offers a variety of dishes and has a focus on providing a great dining experience.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant with a wide selection of categories in Chebba, offering a must-visit dining experience?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the vibrant Marche swq lHwt fish and seafood market (7 AM to 4 PM) for a glimpse into local life.
+**Mid-Morning:**
+- Visit Borj Khadija, a historical landmark known for its stunning architecture and cultural significance.
+**Midday:**
+- Try local cuisine at "The King" restaurant, renowned for its excellent ambiance and service.
+**Afternoon:**
+- Relax and rejuvenate at Cire Plage Chebba, a captivating beach destination with exceptional offerings.
+**Evening:**
+- Enjoy scenic views at Plage SIR, a museum showcasing the local history and culture.
+**Night:**
+- Experience cultural immersion at Plage SIR, a museum showcasing the local history and culture.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1848,14 +2394,61 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Des Jeunes mqhy lshbb located at 64H7+V78 Cafe Des Jeunes mqhy lshbb, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 6:00-22:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593.</t>
+          <t>Cafe Des Jeunes mqhy lshbb is a highly-rated cafe located in La Chebba. Open daily from 6 am to 10 pm, this cozy spot offers a warm and welcoming ambiance for patrons to relax and enjoy their favorite beverages. With a score of 4.8 out of 5 based on 4 reviews, this cafe has earned a reputation for its excellent service and quality offerings.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in La Chebba can you find a highly rated (4.8) cafe serving a variety of options for cafe enthusiasts, making it a must-visit spot with hours of operation from 6:00 AM to 10:00 PM?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Borj Khadija for its cultural significance and stunning architecture.
+Mid-Morning: Trying local cuisine at Chahia Chick'n Box, known for its great food and excellent service.
+Midday: Visiting the nearby fish and seafood market, Marche swq lHwt, for fresh and local catches.
+Afternoon: Enjoying recreational activities like swimming, sunbathing, and playing games at Chebba plage.
+Evening: Taking a guided tour of the Plage SIR museum to immerse in the local history and culture.
+Night: Relaxing at Red Flower cafe in the heart of Chebba, enchanting patrons with its delightful ambiance and prime location.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2554,70 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out mqh~ lnsym located at 64F6+F74 mqh~ lnsym, C82. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x130191bc2187f157:0x239bd25040a44c13!8m2!3d35.22363!4d11.11069!16s%2Fg%2F11h0c0b63p!19sChIJV_GHIbyRARMRE0ykQFDSmyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 026 517.</t>
+          <t>**Mqah El Nassim** is a **5-star** cafe located in Chebba, Tunisia. It is known for its great service and delicious food and drinks that will keep you satisfied and wanting more. Geographically, it is located at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe (4.7 stars) in Chebba that stays open late (until 1:00 AM)?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical landmark of Borj Khadija, known for its cultural significance and stunning architecture.
+- Enjoy a delicious breakfast at MY STORY Coffee Resto, a highly-rated tea room known for its cozy ambiance and welcoming atmosphere.
+Mid-Morning:
+- Visit Plage SIR, a museum dedicated to the local history and culture of La Chebba.
+Midday:
+- Try local cuisine at mshwy `l~ kyfk, a restaurant offering authentic Tunisian dishes prepared with fresh ingredients.
+Afternoon:
+- Relax and rejuvenate at Cire Plage Chebba, a beach club renowned for its exceptional service, delectable cuisine, and inviting ambiance.
+- Indulge in outdoor activities such as swimming, sunbathing, or playing games at Chebba plage, a recreation ground with picnic areas and barbecue grills.
+Evening:
+- Experience cultural immersion at Marche swq lHwt, a vibrant fish and seafood market, offering a glimpse into the local lifestyle.
+- Take a guided tour of Port De Peche la Chebba, a marina providing boat slips, fuel dock, and a restaurant.
+Night:
+- Dine at Pizzeria Khadija, a local pizzeria known for its wide variety of pizzas prepared with fresh ingredients and high ratings among customers.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This cafe, mqh~ lnsym, is located in the city of chebba, Tunisia. It offers a cozy ambiance and a welcoming atmosphere, perfect for grabbing a coffee or tea and relaxing with friends. With a rating of 5.0 and four positive reviews, this cafe is highly recommended by its customers.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2068,13 +2719,67 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in chebba and seeking something fun, consider Croissanterie Lilia, situated on Unnamed Road. 
-This 4.5-star Patisserie is idéal for pastry lovers, with hours of operation from 05:00 to 19:00. Remember, the establishment is closed on Tuesdays. For more information, visit their website or call them using the following coordinates: 35.2340156, 11.1138593.</t>
+          <t>Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a 4.5-star pastry shop in Chebba that offers mouthwatering treats and a cozy ambiance known for its pastry excellence?</t>
+          <t>Day Plan:
+Morning:
+- Wake up and have breakfast at MY STORY Coffee Resto.
+Mid-Morning:
+- Explore the historical landmark Borj Khadija.
+Midday:
+- Try local cuisine at Hdwt@ mSry@.
+Afternoon:
+- Relax with a spa treatment at Beach Lodge.
+Evening:
+- Visit Plage SIR to admire the museum and enjoy the coastal views.
+Night:
+- Enjoy dinner and live music at **Red Flower**.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2176,14 +2881,67 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out Cafe Sindibed located at 64XG+4Q3 Cafe Sindibed, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can visit it 24/7. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sindibed/data=!4m7!3m6!1s0x13018ffdce1a080d:0x513e316945b9d020!8m2!3d35.248951!4d11.126358!16s%2Fg%2F11t28blb4p!19sChIJDQgazv2PARMRINC5RWkxPlE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Sindibed is a 4-star rated cafe located in Chebba, Tunisia. It has 3 reviews and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find Café Sindibed, a highly rated café with extended hours and a diverse menu?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the bustling Marche swq lHwt fish and seafood market for fresh catches and local flavors.
+**Mid-Morning:**
+- Visit the historical landmark of Borj Khadija, marveling at its architectural beauty and soaking in its cultural significance.
+**Midday:**
+- Enjoy a traditional Tunisian lunch at Chahia Chick'n Box, known for its delicious cuisine and warm hospitality.
+**Afternoon:**
+- Stroll along the scenic Chebba plage, indulging in swimming, sunbathing, or simply taking in the coastal ambiance.
+**Evening:**
+- Experience a relaxing Hammam session at a local spa or hotel, rejuvenating your body and mind.
+**Night:**
+- Head to MY STORY Coffee Resto for a delightful dinner and a taste of local tea in a cozy and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sindibed is a 4-star rated cafe located in Chebba, Tunisia. It has 3 reviews and is open 24 hours a day.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2281,12 +3039,67 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Cafe amigos located at 64H7+94R Cafe amigos, La Chebba. This Cafe destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Cafe amigos is a cafe located in La Chebba, Tunisia. It is rated 4.3 out of 5 stars based on 3 reviews. The cafe offers a variety of food and drinks, and is open from 8am to 10pm every day. The cafe is located at 64H7+94R, La Chebba, and can be contacted by phone at +216 98 740 851.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the name and GPS coordinates of the highly-rated Cafe in La Chebba that is perfect for those seeking a top-rated Cafe experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Borj Khadija, a landmark with stunning architecture and cultural significance.
+**Mid-Morning:**
+- Visit Marche swq lHwt, a bustling fish and seafood market, for a taste of local produce and fresh seafood.
+**Midday:**
+- Try the delicious cuisine at La Casa Food, a restaurant renowned for its friendly atmosphere and flavorful dishes.
+**Afternoon:**
+- Relax and soak up the sun at Chebba plage, a recreational park with swimming, sunbathing, and picnic areas.
+**Evening:**
+- Head to Croissanterie Lilia for a sweet treat and enjoy their delectable pastries in a quaint setting.
+**Night:**
+- Participate in a guided tour of Plage SIR, a museum showcasing the area's history and culture.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jet 7 cafer is a 5-star rated cafe in Chebba, Tunisia. Situated at the coordinates (35.23722, 11.115), it is accessible through the link provided above.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2392,12 +3205,67 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Dali located at 64M7+99H Cafe Dali, La Chebba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dali/data=!4m7!3m6!1s0x13018f1f8f94e4cd:0x585cea39b4a32613!8m2!3d35.2334443!4d11.1134988!16s%2Fg%2F11gmc99rtn!19sChIJzeSUjx-PARMREyajtDnqXFg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 634 384.</t>
+          <t>Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find Cafe Dali, a top-rated destination with a 4.3 rating and perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical Borj Khadija, a 4.8-star-rated landmark with stunning architecture.
+Mid-Morning:
+- Visit Plage SIR, a museum offering insights into Tunisia's rich cultural heritage.
+Midday:
+- Lunch at Restaurant Le Voilier, a well-rated restaurant with various dining options.
+Afternoon:
+- Head to Chebba plage, a recreational area ideal for swimming, sunbathing, and picnics.
+Evening:
+- Indulge in traditional Tunisian cuisine at Da Zinouba, a 4-star pizzeria renowned for its delectable pizzas.
+Night:
+- Relax at Cire Plage Chebba, a beach club offering a captivating ambiance and top-notch service.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Casino, located in Chebba (35.2418284, 11.1394077), is a popular cafe with a 4.0 rating. It boasts a cozy atmosphere and offers a variety of coffee and tea options, along with delectable pastries and a selection of light bites. Cafe Casino is a great spot to relax, socialize, or simply enjoy a delicious cup of coffee.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2499,14 +3367,61 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Jet 7 cafer located at 63QW+4R5 Jet 7 cafer, C82. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:01-00:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Jet+7+cafer/data=!4m7!3m6!1s0x13018fb353210259:0x8df4f29e22906b6f!8m2!3d35.2377649!4d11.0971049!16s%2Fg%2F11pwdn8jmt!19sChIJWQIhU7OPARMRb2uQIp7y9I0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jet 7 cafer is a 5-star rated cafe in Chebba, Tunisia. Situated at the coordinates (35.23722, 11.115), it is accessible through the link provided above.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café called Jet 7 cafer in Chebba that offers a fantastic selection for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark, Borj Khadija, and admire its stunning architecture.
+Mid-Morning: Try local cuisine at MY STORY Coffee Resto, which is highly rated by customers.
+Midday: Visit the fish and seafood market, Marche swq lHwt, and observe the lively atmosphere while browsing fresh catches.
+Afternoon: Relax at Cire Plage Chebba, a captivating beach club known for its exceptional offerings and picturesque setting.
+Evening: Enjoy a guided tour of Plage SIR, a museum that showcases the local culture and history.
+Night: Participate in the vibrant local nightlife scene at a traditional dance venue or pub.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2608,12 +3523,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a nice cafe, check out Cafe Sportive located at 64P6+HQH Cafe Sportive, C82, La Chebba. This well-rated destination is perfect for cafe lovers and has a rating of 4.5. It's open during these hours: 05:00-22:00 but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Cafe+Sportive/data=!4m7!3m6!1s0x13018e2dcba1d6d1:0x50cf60d6d60c504f!8m2!3d35.2364256!4d11.1119791!16s%2Fg%2F11dyxk7b_9!19sChIJ0dahyy2OARMRT1AM1tZgz1A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a highly rated cafe (4.5 stars) called Cafe Sportive, known for its ambiance and appeal to cafe lovers?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore Borj Khadija:** Visit this historical landmark for its cultural significance and stunning architecture.
+**Mid-Morning:**
+* **Visit Chebba plage:** Enjoy the sun, sand, and water at this beach with picnic areas and barbecue grills.
+**Midday:**
+* **Lunch at MY STORY Coffee Resto:** Indulge in delicious local cuisine at this highly-rated tea room.
+**Afternoon:**
+* **Shop at Marche swq lHwt:** Experience the vibrant atmosphere and find fresh seafood and local products at this fish and seafood market.
+**Evening:**
+* **Relax at Cire Plage Chebba:** Unwind at this beach club, offering exceptional service and a picturesque setting.
+**Night:**
+* **Dinner at La Cabane:** Savor delectable meals at this 4.8-star rated restaurant, known for its flavorful dishes.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Happy coffee day is a cafe located at 64M6+F8W Happy coffee day, Unnamed Road, La Chebba.
+The place is rated 5.0 out of 5 by its customers.
+It offers a variety of coffee drinks, as well as pastries and sandwiches.
+The cafe is open from Monday to Sunday from 8:00am to 8:00pm.
+It is located at the coordinates (30.860182, -90.511206).
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2711,14 +3685,65 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Happy coffee day located at 64M6+F8W Happy coffee day, Unnamed Road, La Chebba. 
-This spot is perfect for Cafe lovers and has a rating of 5.0. 
-For more details, visit their website at  or call them at .</t>
+          <t>Happy coffee day is a cafe located at 64M6+F8W Happy coffee day, Unnamed Road, La Chebba.
+The place is rated 5.0 out of 5 by its customers.
+It offers a variety of coffee drinks, as well as pastries and sandwiches.
+The cafe is open from Monday to Sunday from 8:00am to 8:00pm.
+It is located at the coordinates (30.860182, -90.511206).</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a 5.0 rating in Chebba, perfect for lovers of coffee?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Visit the Marche swq lHwt, a fish and seafood market, to immerse in local culture and purchase fresh seafood.
+Midday: Try local cuisine at La Casa Food, renowned for its delicious cuisine and friendly atmosphere.
+Afternoon: Enjoy the scenic views at Chebba plage, a recreation ground offering swimming, sunbathing, and games.
+Evening: Relax with a traditional hammam experience at the local spa to rejuvenate and unwind after a day of exploration.
+Night: Experience cultural immersion at Plage SIR, a museum showcasing the local history and heritage.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amigos is a cafe located in La Chebba, Tunisia. It is rated 4.3 out of 5 stars based on 3 reviews. The cafe offers a variety of food and drinks, and is open from 8am to 10pm every day. The cafe is located at 64H7+94R, La Chebba, and can be contacted by phone at +216 98 740 851.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2820,12 +3845,61 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you find yourself in Chebba and in search of a delightful cafe experience, head to Red Flower, located at 64P3+259 Red Flower, C82. With a superb rating of 5.0, this cafe is a haven for those who appreciate quality coffee and a cozy ambiance. Red Flower is open daily from 7:00 AM to 12:30 AM, offering the perfect setting to unwind and savor your favorite beverages. For further information, you may visit their website or contact them directly.</t>
+          <t>**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy ambiance and quality coffee in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of Borj Khadija, marveling at its architectural beauty and cultural significance.
+Mid-Morning: Visit the Marche swq lHwt fish market to immerse yourself in the local culture and purchase fresh seafood for a delicious meal.
+Midday: Enjoy a delightful lunch at MY STORY Coffee Resto, savoring the local cuisine and enjoying the cozy ambiance.
+Afternoon: Spend the afternoon relaxing at Chebba plage, enjoying the sun and sea while engaging in various recreational activities.
+Evening: Take a scenic stroll along Port de Chebba, admiring the picturesque views of the marina and watching the boats sail by.
+Night: Experience the local nightlife at **Hamidou Chebba**, indulging in traditional Tunisian cuisine and lively entertainment.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Borj is a 5-star cafe located in La Chebba, Tunisia at coordinates (35.23722, 11.115). Reviews have rated this place highly.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2919,14 +3993,61 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a cozy place to relax, check out Borj located at 65P3+V57 Borj, plage. 
-This top-rated destination is perfect for Cafe enthusiasts and offers a cozy ambiance with delicious beverages to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Borj/data=!4m7!3m6!1s0x13018fb7668150cb:0x25430d8e793ff1e9!8m2!3d35.2371641!4d11.1529335!16s%2Fg%2F11rwrm9ynr!19sChIJy1CBZrePARMR6fE_eY4NQyU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj is a 5-star cafe located in La Chebba, Tunisia at coordinates (35.23722, 11.115). Reviews have rated this place highly.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find the highly-rated Borj, known for its cozy ambiance and delicious beverages?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of **Borj Khadija** for its cultural significance and stunning architecture.
+Mid-Morning: Visit the **Plage SIR** museum for a glimpse into the local history and culture.
+Midday: Try local cuisine at **MY STORY Coffee Resto**, a highly rated tea room and restaurant with excellent breakfast options.
+Afternoon: Enjoy the scenic views and engage in outdoor activities at the **Chebba plage** recreation ground, offering swimming, sunbathing, and games.
+Evening: Participate in the lively atmosphere and authentic experience at **La Belle Vue**, a top-notch cafe offering exceptional services.
+Night: Experience cultural immersion at the **Port La Chebba AL MARSSA** marina, with its picturesque setting, restaurants, and cafes.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3032,12 +4153,61 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, La charlotte, located at 65P4+28V La charlotte, Unnamed Road, La Chebba is the perfect spot. This top-rated destination has a rating of 4.0 and is a must-visit for cafe lovers. For more details, visit their website at https://www.facebook.com/lacharlotte21 or call them at 28 689 982.</t>
+          <t>"La charlotte", cafe with a rating of 4.0, is located in La Chebba (lon: 29.99664, lat: -91.910214).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe (4.0 stars) called La Charlotte in La Chebba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Visit the Marche swq lHwt fish and seafood market to witness the vibrant local trade and purchase fresh seafood.
+Midday: Savor the flavors of local cuisine at Chahia Chick'n Box, renowned for its excellent food and service.
+Afternoon: Head to Plage SIR, a museum offering insights into the region's history and culture.
+Evening: Take a refreshing swim or enjoy a picnic at Chebba plage, a popular recreation ground with scenic views.
+Night: Relax at Hamidou Chebba, a residence offering comfortable accommodations and a peaceful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"La charlotte", cafe with a rating of 4.0, is located in La Chebba (lon: 29.99664, lat: -91.910214).
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3131,12 +4301,61 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in chebba and searching for a rewarding cafe experience, consider visiting Waffle House, located at 64QF+676 Waffle House. As a 5.0-rated cafe on Google, it's a must for cafe lovers. For further information, browse their site at https://www.google.com/maps/place/Waffle+House/data=!4m7!3m6!1s0x13018f6f5f6d8eb5:0x95e96bc4cd023a03!8m2!3d35.2380445!4d11.1231408!16s%2Fg%2F11j_pj9ffj!19sChIJtY5tX2-PARMRAzoCzcRr6ZU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Waffle House is a popular cafe situated in Chebba, Tunisia, offering an array of delectable treats to tantalize your taste buds. Its precise location is at the coordinates (35.23722, 11.115), making it easily accessible to locals and visitors alike. With a rating of 5.0 stars, it has garnered much appreciation for its culinary delights and exceptional service.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed (5.0-rated on Google) cafe called Waffle House in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical Borj Khadija, a stunning landmark with rich cultural significance.
+Mid-Morning: Indulge in a delectable breakfast at MY STORY Coffee Resto, known for its highly-rated cuisine and cozy ambiance.
+Midday: Head to Chebba plage, a recreational park perfect for sunbathing, swimming, and enjoying a picnic with family and friends.
+Afternoon: Visit Plage SIR museum to delve into the local history and culture, showcasing various artifacts and exhibits.
+Evening: Explore the bustling Marche swq lHwt, a lively fish and seafood market, offering fresh catches and local delicacies.
+Night: Relax and rejuvenate at the luxurious Beach Lodge hotel, known for its comfortable amenities and serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3230,14 +4449,61 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe bougare located at 64Q7+C82 Cafe bougare. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+bougare/data=!4m7!3m6!1s0x13018f313f63577b:0x1c9215383938ea3e!8m2!3d35.2385142!4d11.1132664!16s%2Fg%2F11t8383lj5!19sChIJe1djPzGPARMRPuo4OTgVkhw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe bougare is a cafe located in La Chebba, Tunisia. It has a rating of 5.0 stars on Google and is categorized as a cafe. Its exact location is at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find Cafe bougare, a top-rated destination with a 5.0 rating, perfect for Cafe lovers in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Visit the Plage SIR museum to immerse in the region's history and culture.
+Midday: Try local cuisine at the highly-rated MY STORY Coffee Resto, enjoying a delightful meal while admiring the picturesque surroundings.
+Afternoon: Engage in outdoor activities at the Chebba plage recreational ground, swimming, sunbathing, or playing games amidst a serene atmosphere.
+Evening: Head to Cire Plage Chebba, a captivating beach club known for its exceptional service, delectable cuisine, and inviting ambiance, offering a perfect setting to unwind and rejuvenate.
+Night: Experience the vibrant local culture by visiting Hamidou Chebba.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Des Jeunes mqhy lshbb is a cafe located in chebba, Tunisia. It has 4.8 rating based on 4 reviews. The cafe is open everyday from 06:00 AM till 10:00 PM.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3335,14 +4601,61 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Da Zinouba located at 64QV+8PG Da Zinouba, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Da+Zinouba/data=!4m7!3m6!1s0x13018f278cb97d77:0xec9c40b710ca6ec4!8m2!3d35.2383012!4d11.1443334!16s%2Fg%2F11nnr_qwzd!19sChIJd325jCePARMRxG7KELdAnOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a 4.0 rating in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the cultural significance and stunning architecture of Borj Khadija, a historical landmark in Chebba, Tunisia.
+Mid-Morning: Indulge in the delectable treats offered at Croissanterie Lilia, a 4.5-star-rated patisserie known for its pastries and convenient location in La Chebba.
+Midday: Try local cuisine at the well-rated Restaurant Le Voilier in Chebba, France.
+Afternoon: Enjoy sunbathing, swimming, and games at Chebba plage, a recreation ground with picnic areas and barbecue grills.
+Evening: Take scenic shots of the sunset at Plage SIR, a museum located in La Chebba, Tunisia.
+Night: Relax and unwind with a stay at Beach Lodge, a 4.4-star hotel located in Chebba, Tunisia, known for its convenient location and easy access to local attractions.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3444,14 +4757,67 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a comfortable stay, check out Beach Lodge located at Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at  or call them at 52 634 003.</t>
+          <t>Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Question: Which beachside accommodation in Chebba with a high guest rating can you find at Avenue Habib Bourguiba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical landmark of Borj Khadija, known for its cultural significance and stunning architecture.
+**Mid-Morning:**
+* Visit Plage SIR, a local museum that offers insights into the history and culture of the region.
+**Midday:**
+* Try local cuisine at MY STORY Coffee Resto, a highly-rated tea room serving delicious food and excellent service.
+**Afternoon:**
+* Enjoy some relaxation time at Bayethet chye7, a beach pavilion offering a peaceful getaway with a serene atmosphere.
+**Evening:**
+* Go for a swim or sunbathe at Chebba plage, a popular recreational spot with a variety of activities and amenities.
+**Night:**
+* Experience the lively ambiance of Pizzeria CHALET, known for its delicious pizzas and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3553,12 +4919,67 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a luxurious stay, check out Beach Lodge located at Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170. This top-rated hotel is perfect for travelers seeking comfort and relaxation. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website or call them at 52 634 003.</t>
+          <t>Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated, luxurious hotel conveniently located in a relaxing destination with precise GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historical landmark, Borj Khadija, for a glimpse into Chebba's rich cultural heritage.
+**Mid-Morning:**
+- Immerse yourself in the local culture and indulge in traditional Tunisian cuisine at MY STORY Coffee Resto.
+**Midday:**
+- Head to Plage SIR, a museum that offers insights into the local history and showcases fascinating exhibits.
+**Afternoon:**
+- Escape the midday heat by enjoying a relaxing swim and sunbathing at Chebba Plage.
+**Evening:**
+- Embark on a culinary adventure at Pizzeria Khadija, savoring the authentic flavors of freshly baked pizzas.
+**Night:**
+- Indulge in a rejuvenating spa experience at the luxurious Beach Lodge, leaving you refreshed and relaxed.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3660,14 +5081,61 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port de Chebba located at 65M5+6P8. 
-This top-rated destination is perfect for Port fluvial ou maritime lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Port+de+Chebba/data=!4m7!3m6!1s0x13018ff8496e6107:0xa9ef68e14d68bc99!8m2!3d35.2330358!4d11.1593199!16s%2Fg%2F1ptz3xtdq!19sChIJB2FuSfiPARMRmbxoTeFo76k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Port fluvial ou maritime destination in Chebba that is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring Borj Khadija, a historical landmark with stunning architecture.
+Mid-Morning: Trying local cuisine at **mshwy `l~ kyfk**, a highly-rated restaurant known for its delicious dishes.
+Midday: Relaxing at Chebba Plage, a beautiful beach offering swimming, sunbathing, and picnic areas.
+Afternoon: Shopping for souvenirs and local products at Marche swq lHwt, a vibrant fish and seafood market.
+Evening: Enjoying a romantic dinner at Pizzeria Khadija, a popular pizzeria serving a variety of pizzas in a cozy atmosphere.
+Night: Exploring the vibrant nightlife at Port De Peche la Chebba, a marina with a lively atmosphere and a variety of bars and restaurants.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3769,14 +5237,61 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out chebba plage located at 742F+GJ chebba plage, La Chebba. 
-This top-rated destination is perfect for Terrain de jeu lovers and offers a range of Terrain de jeu to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>What is the special attraction for Terrain de jeu lovers located in Chebba, with its exact GPS coordinates and traveler rating?</t>
+          <t>Day Plan:
+Morning: Exploring Borj Khadija, a 4.8-star historical landmark with stunning architecture.
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto, a tea room rated 4.6 stars by customers.
+Midday: Visiting Plage SIR, a museum with a rating of 4.6 based on 10 reviews.
+Afternoon: Enjoying recreational activities at Chebba plage, a recreation ground with swimming, sunbathing, picnic areas, and barbecue grills.
+Evening: Taking a guided tour of Port de Chebba, a 24/7 port with a 4.4 rating based on 27 reviews.
+Night: Relaxing with a stay at Beach Lodge, a 4.4-star hotel situated in the heart of the city.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3878,14 +5393,67 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Marche swq lHwt located at 64Q7+5PW Marche swq lHwt, La Chebba. 
-This top-rated destination is perfect for Marche aux poissons et fruits de mer lovers and offers a range of Marche aux poissons et fruits de mer to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 07:00-16:00, but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Marche aux poissons et fruits de mer destination with a 3.9 rating in Chebba?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic landmark, Borj Khadija, with its stunning architecture and cultural significance.
+**Mid-Morning:**
+- Visit Plage SIR, a museum showcasing local history and cultural heritage.
+**Midday:**
+- Savor the local cuisine at MY STORY Coffee Resto, known for its highly-rated breakfast options.
+**Afternoon:**
+- Enjoy the scenic beauty of Chebba plage, a recreational ground perfect for swimming, sunbathing, and picnics.
+**Evening:**
+- Relish a delightful dinner at Pizzeria Khadija, a local pizzeria renowned for its fresh and flavorful pizzas.
+**Night:**
+- Relax with a calming stay at Hamidou Chebba, a residence offering comfortable accommodations and a peaceful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sportive is a cafe located in chebba at coordinates (35.237, 11.115). It is highly rated, with a score of 4.5 out of 5. The cafe is open on weekdays from 5 am to 10 pm and offers a variety of amenities, including free Wi-Fi and a comfortable atmosphere.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3983,12 +5551,61 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port De Peche la Chebba located at 64FH+M4Q Port De Peche la Chebba, Avenue Mer mediterranee, Raoued. This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.963551282233, 10.219218438769.</t>
+          <t>Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a top-rated destination with numerous Port de plaisance options, ideal for Port de plaisance enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historical landmark, Borj Khadija
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto
+Midday: Enjoying the picturesque views at Plage SIR museum
+Afternoon: Relaxing with a massage at Hamidou Chebba residence
+Evening: Shopping for souvenirs at Marche swq lHwt fish market
+Night: Experiencing the lively atmosphere at Port de Chebba</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4086,14 +5703,61 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port La Chebba AL MARSSA located at 64FH+6MM Port La Chebba AL MARSSA, Avenue Mer mediterranee, Raoued. 
-This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.963551282233, 10.219218438769. For more details, visit their website at https://www.google.com/maps/place/Port+La+Chebba+AL+MARSSA/data=!4m7!3m6!1s0x130190263874eaab:0x9eb15034c0a1401e!8m2!3d35.2230804!4d11.1291645!16s%2Fg%2F11c53s2pjs!19sChIJq-p0OCaQARMRHkChwDRQsZ4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination for Port de plaisance enthusiasts with a 4.4 rating in the Chebba area?</t>
+          <t>Day Plan:
+Morning: Explore Borj Khadija, a historical landmark with stunning architecture.
+Mid-Morning: Visit the fish and seafood market, Marche swq lHwt, for fresh local catches.
+Midday: Enjoy a delicious lunch at MY STORY Coffee Resto, known for its 4.6-star rating and delicious tea.
+Afternoon: Relax on the scenic Plage SIR, a beautiful beach with crystal-clear waters and warm sand.
+Evening: Indulge in a traditional dinner at The King restaurant, savoring authentic Tunisian cuisine.
+Night: Experience the vibrant nightlife at Port de Chebba, a marina with lively bars and restaurants.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4199,12 +5863,61 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you find yourself in chebba, make sure you check out Chebba 5170 located at 64M6+F8W Chebba 5170, Gouvernorat de, La Chebba 5117. This top-rated school is a must-visit spot, with a rating of 4.7 out of 5. It's open 24 hours a day, so you can visit anytime! To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at http://www.mbsm.pro/ or call them at 26 920 933.</t>
+          <t>Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated top-rated school open 24 hours a day in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Chebba plage, a recreation ground that offers swimming, sunbathing, and a variety of activities.
+Mid-Morning: Visit the historic Borj Khadija, a cultural landmark known for its stunning architecture.
+Midday: Try local cuisine at MY STORY Coffee Resto, a highly rated tea room and restaurant offering delicious breakfast options.
+Afternoon: Relax and rejuvenate at Cire Plage Chebba, a beach club with top-notch service, delectable cuisine, and an inviting ambiance.
+Evening: Enjoy scenic views at Port de Chebba, a port with a picturesque setting and a 4.4 rating based on 27 reviews.
+Night: Experience cultural immersion at Plage SIR, a museum that showcases the rich heritage of the region.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe bougare is a cafe located in La Chebba, Tunisia. It has a rating of 5.0 stars on Google and is categorized as a cafe. Its exact location is at coordinates (35.23722, 11.115).
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4302,15 +6015,61 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>**Explore the Beachside Haven of Chebba**
-Discover Bayethet chye7, a highly-rated beach pavilion located at 64VM+HWM Bayethet chye7, Unnamed Road, La Chebba. This popular destination invites beach enthusiasts to unwind and embrace the coastal charm.
-Offering a relaxing atmosphere, Bayethet chye7 specializes in providing a tranquil retreat. With a rating of 5.0 stars, it's an ideal spot for those seeking serenity and recreation.
-To plan your visit, use the GPS coordinates (35.2340156, 11.1138593) for easy navigation. For more information, visit their website or connect with them via phone (details not available).</t>
+          <t>Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated beach pavilion in La Chebba, offering a relaxing atmosphere and a tranquil retreat?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Des Jeunes mqhy lshbb for a cozy ambiance and quality beverages.
+Mid-Morning: Visit MY STORY Coffee Resto for a highly-rated breakfast experience.
+Midday: Take a guided tour of Zang zanga to learn about the local cuisine and enjoy a meal.
+Afternoon: Relax at Chebba plage, enjoying the recreational activities and scenic views.
+Evening: Explore Borj Khadija, a historical landmark with stunning architecture for a cultural immersion.
+Night: Enjoy a relaxing evening at Cire Plage Chebba beach club, savoring delectable cuisine and the inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Des Jeunes mqhy lshbb is a highly-rated cafe located in La Chebba. Open daily from 6 am to 10 pm, this cozy spot offers a warm and welcoming ambiance for patrons to relax and enjoy their favorite beverages. With a score of 4.8 out of 5 based on 4 reviews, this cafe has earned a reputation for its excellent service and quality offerings.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4412,12 +6171,61 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cire Plage Chebba located at 64QW+45R Cire Plage Chebba, Unnamed Road, La Chebba. This top-rated destination is perfect for Pavillon de plage lovers. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.instagram.com/lachebbaplage/ or call them at To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Chebba can you visit a top-rated Pavillon de plage destination with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Chebba Beach
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto
+Midday: Visiting the historical Borj Khadija
+Afternoon: Enjoying swimming and sunbathing at Cire Plage Chebba
+Evening: Shopping at Marche swq lHwt for local fish and seafood
+Night: Relaxing with a traditional tea at La Belle Vue</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Cabane is a restaurant located in 64P7+QC5 La Cabane, Chebba, with coordinates (35.2340156, 11.1138593). It is open from 14:00-02:00 and has a 4.8 rating based on 5 reviews. La Cabane offers a variety of dishes and has a focus on providing a great dining experience.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4515,12 +6323,61 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you find yourself in chebba and looking for some historical adventure, head to Borj Khadija located at 65M4+VJC Borj Khadija, La Chebba. This top-rated historical site is perfect for history lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Borj+Khadija/data=!4m7!3m6!1s0x13018f0fe030a3a5:0x44035fdad490f528!8m2!3d35.2346794!4d11.1565065!16s%2Fg%2F11f5_3xt74!19sChIJpaMw4A-PARMRKPWQ1NpfA0Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you embark on a historical adventure in Chebba, known for its high rating and intriguing history?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Visit the Plage SIR museum, showcasing the area's history and culture. Take a guided tour to learn about the region's rich heritage.
+Midday: Try local cuisine at the well-rated restaurant Restaurant Le Voilier, offering a variety of dining options and a delightful culinary experience.
+Afternoon: Enjoy the sun and sand at Chebba plage, a recreation ground ideal for swimming, sunbathing, and playing games. Relax and soak up the vibrant atmosphere.
+Evening: Head to MY STORY Coffee Resto for a relaxing evening. Enjoy a cup of tea and indulge in the local ambiance.
+Night: Experience the vibrant nightlife at Cafe Dali, a popular spot with locals and tourists alike. Enjoy live music, tasty food, and the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4618,15 +6475,67 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a fascinating museum experience, Plage SIR is a must-visit.
-Nestled at 64QW+76R Plage, this top-rated destination boasts a rating of 4.6 and offers an immersive journey into history and culture.
-Open 10 reviews strong, it's the perfect place for museum enthusiasts and offers a range of exhibits to explore. 
-For more details, visit their website or contact them directly.</t>
+          <t>Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find an enthralling museum experience that boasts a high rating and offers an immersive historical and cultural journey?</t>
+          <t>Day Plan:
+Morning:
+- Start your day with a delicious breakfast at **Red Flower** cafe.
+Mid-Morning:
+- Visit **Borj Khadija** historical landmark for its cultural significance and stunning architecture.
+Midday:
+- Head to **MY STORY Coffee Resto** for lunch and enjoy a traditional Tunisian meal.
+Afternoon:
+- Spend the afternoon relaxing at **Chebba plage**, swimming, sunbathing, or playing games with your friends and family.
+Evening:
+- Explore **Marche swq lHwt** fish and seafood market for fresh catches and local delicacies.
+Night:
+- End the day with a memorable dinner at **La Cabane** restaurant, rated 4.8 stars with delicious meals.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4720,13 +6629,70 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a place to stay, consider Hamidou Chebba located at 64QJ+2M Hamidou Chebba. 
-This top-rated residence is perfect for those seeking a comfortable stay and offers a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Hamidou+Chebba/data=!4m7!3m6!1s0x13018ff8d2d65ef3:0xc7de78e60b931c6!8m2!3d35.2373675!4d11.1317233!16s%2Fg%2F11t51l513c!19sChIJ817W0viPARMRxjG5YI7nfQw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a 4.0 rated residence with a convenient location in Chebba for a comfortable stay?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore La Chebba plage, a recreational ground with swimming, sunbathing, and games.
+**Mid-Morning:**
+* Try local cuisine at MY STORY Coffee Resto, a highly rated tea room and restaurant known for its breakfast.
+**Midday:**
+* Visit Borj Khadija, a historical landmark with stunning architecture and cultural significance.
+**Afternoon:**
+* Shop for fish and seafood at Marche swq lHwt, a market offering a variety of catches.
+* Enjoy scenic views at Port de Chebba, a 24/7 port with a high rating.
+**Evening:**
+* Relax with a massage at a local spa or hotel.
+* Participate in a guided tour of Plage SIR, a museum showcasing the town's history.
+**Night:**
+* Experience local culture at a traditional music performance or dance event.
+* Enjoy a dinner with a view at Da Zinouba, a pizzeria located on the waterfront.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4824,14 +6790,67 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great place to relax and grab a coffee, visit Cafe Casino located at 64RQ+MRV, Chebba. 
-This top-rated spot with a 4.0 rating is perfect for cafe lovers. 
-To get there, use these GPS coordinates: 35.2418284, 11.1394077.</t>
+          <t>Cafe Casino, located at 64RQ+MRV, Chebba, is a highly-rated cafe with a 4.0 rating based on 22 reviews. It is known for its cozy ambiance and delicious coffee, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find Cafe Casino, a highly-rated cafe offering a relaxing ambiance for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Explore the vibrant atmosphere of Red Flower, a cozy cafe nestled in the heart of Chebba, and enjoy a delightful cup of coffee.
+Mid-Morning:
+- Visit the historical landmark, Borj Khadija, to delve into the cultural heritage of Chebba.
+Midday:
+- Savor the authentic flavors of Chebba by indulging in a traditional meal at MY STORY Coffee Resto.
+Afternoon:
+- Spend a leisurely afternoon at Chebba plage, where you can relax on the sandy shores, take a refreshing swim, or indulge in various recreational activities.
+Evening:
+- Take a guided tour of Plage SIR, a museum that showcases the local heritage of Chebba.
+Night:
+- Experience the vibrant nightlife of Chebba by visiting Port De Peche la Chebba and enjoying a delightful dinner at its waterfront restaurant.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4941,12 +6960,67 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a perfect spot to unwind, check out MY STORY Coffee Resto located at Rue de port 150m de, Borj Khadija. This top-rated destination is perfect for Salon de the and Restaurant lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-00:00. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at https://www.facebook.com/mystory.coffee.resto1/ or call them at 22 153 154.</t>
+          <t>MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a highly rated (4.6) destination that combines relaxation and delicious cuisine?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+**Mid-Morning:**
+* Visit the Chebba Fish Market (Marché swq lHwt) for an authentic taste of the local fishing scene.
+**Midday:**
+* Try the delicious coffee and snacks at Cafe Sportive, a popular local café with a cozy atmosphere and convenient location near the city center.
+**Afternoon:**
+* Relax and sunbathe at Plage Chebba, enjoying the beautiful scenery and taking a refreshing dip in the Mediterranean Sea.
+**Evening:**
+* Enjoy dinner at the highly rated MY STORY Coffee Resto, known for its excellent breakfast and wide menu selection.
+**Night:**
+* Experience the vibrant nightlife at the Beach Lodge Hotel, offering a lively atmosphere and perhaps even some live music.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5052,14 +7126,61 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out La Cantine Royale located at 64Q9+8MR La Cantine Royale, Unnamed Road, La Chebba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their link at https://www.google.com/maps/place/La+Cantine+Royale/data=!4m7!3m6!1s0x13018fcd7fc307c1:0x4349542b1a6956e6!8m2!3d35.2383575!4d11.119138!16s%2Fg%2F11g6_tv8ff!19sChIJwQfDf82PARMR5lZpGitUSUM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 463 996.</t>
+          <t>La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination with a 4.3 rating, offering a variety of restaurant options, in La Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija.
+Mid-Morning: Try local cuisine at Hdwt@ mSry@ restaurant.
+Midday: Enjoy the scenic views at Chebba plage.
+Afternoon: Relax with a pastry treat at Croissanterie Lilia.
+Evening: Participate in an event or activity at Port de Chebba.
+Night: Experience the cultural immersion at Plage SIR museum.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5157,15 +7278,67 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Pizzeria Khadija located at 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website 
-at https://www.google.com/maps/place/Pizzeria+Khadija/data=!4m7!3m6!1s0x13018f6fdf05e30b:0x7fdcad0e14bcef2c!8m2!3d35.2350865!4d11.1557533!16s%2Fg%2F11h4w9p9cb!19sChIJC-MF32-PARMRLO-8FA6t3H8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated Pizzeria destination with a high rating of 4.2 when I am in Chebba?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant fish and seafood market at **Marche swq lHwt**, sampling fresh local delicacies.
+**Mid-Morning:**
+- Indulge in a traditional breakfast with "petit dejeuner" at **MY STORY Coffee Resto**, a highly rated tea room and restaurant.
+**Midday:**
+- Visit the historical landmark **Borj Khadija** to admire its stunning architecture and captivating stories.
+**Afternoon:**
+- Relax on the scenic shores of **Cire Plage Chebba**, enjoying the warm sun and indulging in delicious cuisine.
+**Evening:**
+- Head to **Cafe Dali** for aromatic coffee or tea, while soaking in the charming ambiance of La Chebba.
+**Night:**
+- Experience the bustling atmosphere of **Port de Chebba**, a lively port offering a variety of entertainment options and panoramic views.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5267,12 +7440,61 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Jabeur located at 64M7+RC6 Cafe Jabeur, C82, Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jabeur/data=!4m7!3m6!1s0x13018e2c61df3ed5:0xddf60eae5a856b74!8m2!3d35.234532!4d11.1135307!16s%2Fg%2F11cr_hw_vr!19sChIJ1T7fYSyOARMRdGuFWq4O9t0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Jabeur, situated in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe with a 4.0 rating. Open from 6 AM to 11 PM, this cafe serves as a great spot to relax and enjoy a cup of coffee while savoring the local ambiance.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe, with a 4.0 rating, perfect for Cafe lovers in Chebba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija
+Mid-Morning: Visit the local fish market Marche swq lHwt
+Midday: Try local cuisine at the 4.6-star rated MY STORY Coffee Resto
+Afternoon: Relax and enjoy the beach at Chebba Plage
+Evening: Take a guided tour of the Plage SIR museum
+Night: Enjoy scenic views at the Port De Chebba marina</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5370,14 +7592,61 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in Chebba and seeking a delightful dining experience, be sure to visit restaurant le voilier, conveniently located at 64QV+8MQ. 
-Highly rated with a 4.1 rating, this popular restaurant is renowned for its culinary delights, catering to Restaurant enthusiasts. 
-For further inquiries or reservations, visit their website or contact them directly</t>
+          <t>Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (4.1 rating) that offers a memorable dining experience in Chebba, as recommended by numerous food lovers?</t>
+          <t>Day Plan:
+Morning: Take a stroll along Chebba plage, enjoying the stunning views and refreshing sea breeze.
+Mid-Morning: Visit Borj Khadija, a captivating historical landmark, and immerse yourself in the rich culture and heritage of the region.
+Midday: Savor the flavors of local cuisine with a delightful lunch at Hdwt@ mSry@, renowned for its delectable dishes.
+Afternoon: Spend an afternoon rejuvenating at Cire Plage Chebba, a beach club offering exceptional service, delectable cuisine, and an inviting ambiance.
+Evening: Treat yourself to a unique shopping experience at Marche swq lHwt, a local fish and seafood market, offering a glimpse into the daily life of the community.
+Night: Wrap up the day with a relaxing stay at Beach Lodge, a conveniently located hotel in the heart of Chebba, providing comfortable accommodations and easy access to local attractions.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mqah El Nassim** is a **5-star** cafe located in Chebba, Tunisia. It is known for its great service and delicious food and drinks that will keep you satisfied and wanting more. Geographically, it is located at coordinates (35.23722, 11.115).
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5483,12 +7752,61 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Restaurant, check out The King located at The King, 22 C82, Chebba. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.facebook.com/The-King-105223425363666/ or call them at 22 856 636.</t>
+          <t>Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find a highly rated restaurant called The King, easily accessible via GPS coordinates, that stands out with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the local fish market, Marche swq lHwt, and immerse yourself in the vibrant atmosphere of local commerce.
+Mid-Morning: Savor local cuisine at Chahia Chick'n Box, a highly-rated restaurant known for its great food and excellent service.
+Midday: Visit the historical landmark Borj Khadija, delve into its cultural significance, and admire its stunning architecture.
+Afternoon: Relax on the picturesque Chebba plage, indulge in swimming, sunbathing, and enjoy the serene ambiance by the sea.
+Evening: Head to Jet 7 cafer for a delightful 5-star coffee break, unwind in its cozy atmosphere while connecting with friends.
+Night: Immerse yourself in the lively street market, Souk Chebba, experience the vibrant local culture, and shop for unique souvenirs.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Enjoy a 5-star coffee break at Jet 7 cafer, located at 63QW+4R5 Jet 7 cafer, C82, La Chebba. As one of the top-rated cafes in the area, Jet 7 cafer offers a wide range of coffee drinks and desserts in a cozy atmosphere. It's the perfect place to relax, recharge, and connect with friends.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5586,12 +7904,61 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Zang zanga located at 64QV+HHM, Zang zanga. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at or call them at .</t>
+          <t>Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>For food enthusiasts seeking a memorable dining experience in Chebba, what top-rated destination with a broad selection of restaurants should be included on their itinerary?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija.
+Mid-Morning: Try local cuisine at the highly-rated restaurant La Casa Food.
+Midday: Visit the fish and seafood market Marche swq lHwt for a unique local experience.
+Afternoon: Enjoy the sun and sand at Cire Plage Chebba, a captivating beach destination.
+Evening: Relax and rejuvenate with a spa treatment at a local spa or hotel.
+Night: Participate in traditional Tunisian music and dance at a cultural event or venue.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5689,12 +8056,61 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out La Belle Vue located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Belle+Vue/data=!4m7!3m6!1s0x13018f436204184d:0xae29ddc3151dc222!8m2!3d35.2498559!4d11.1252626!16s%2Fg%2F11hzymmn_w!19sChIJTRgEYkOPARMRIsIdFcPdKa4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated La Belle Vue Cafe in La Chebba that offers a variety of Cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring the historical landmark of Borj Khadija.
+Mid-Morning: Trying local cuisine at the highly-rated MY STORY Coffee Resto with its popular breakfast options.
+Midday: Enjoying the sun and sand at the captivating beach destination of Cire Plage Chebba.
+Afternoon: Relaxing with a scenic stroll along the shores of Chebba plage, taking in the picturesque views.
+Evening: Visiting the acclaimed museum of Plage SIR to delve into the local culture.
+Night: Experiencing the vibrant atmosphere of **mshwy `l~ kyfk**, a local restaurant known for its authentic ambiance and delicious food.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Paris Chebba is a cafe located in Chebba, Tunisia. It offers a variety of food and drinks, and is open from 5am to midnight. The cafe is highly rated by its customers, with an average rating of 4.5 out of 5 stars. It is located at the coordinates (35.2170214, 11.0492031).
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5796,12 +8212,61 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Experience the local charm of Cafe Paris Chebba in chebba! Located at Rue de la lybie, this top-rated cafe exudes a cozy ambiance for coffee enthusiasts. Its menu offers a delightful range of beverages and bites to satisfy your cravings. With an impressive rating of 4.5 out of 5, it's a must-visit destination. Cafe Paris Chebba is open daily from 5 AM to 12 AM, so you can indulge in your favorite drinks and pastries at your convenience.</t>
+          <t>Cafe Paris Chebba is a cafe located in Chebba, Tunisia. It offers a variety of food and drinks, and is open from 5am to midnight. The cafe is highly rated by its customers, with an average rating of 4.5 out of 5 stars. It is located at the coordinates (35.2170214, 11.0492031).</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe that offers a cozy ambiance and a delectable menu in the heart of Chebba?</t>
+          <t>Day Plan:
+Morning: Exploring Chebba 5170, a highly rated school with a 4.7 rating
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto, a highly rated tea room and restaurant
+Midday: Visiting Borj Khadija, a historical landmark located in Chebba, Tunisia, known for its cultural significance and stunning architecture
+Afternoon: Enjoying scenic views at Plage SIR, a museum located in Plage SIR, La Chebba, Tunisia.
+Evening: Relaxing with a cup of coffee or tea at La Belle Vue cafe, a top-rated cafe with a 4.7 out of 5 stars based on 6 reviews
+Night: Participating in a guided tour of Port De Peche la Chebba, a marina located in chebba, Tunisia with a rating of 4.7 stars based on 11 reviews</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5907,12 +8372,61 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for somewhere great to eat, check out La Cabane at 64P7+QC5 La Cabane. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-02:00, but closed on  . To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, call them at 58 896 898.</t>
+          <t>La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Chebba can you indulge in a highly-rated restaurant experience with a diverse menu, offering a must-visit culinary destination?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark, Borj Khadija, renowned for its cultural significance and stunning architecture.
+Mid-Morning: Indulge in the local cuisine at "The King" restaurant, highly regarded for its ambiance and service, despite limited information on its menu.
+Midday: Take a refreshing break at Beach Lodge, a 4.4-rated hotel located near the beach, offering a tranquil atmosphere to escape the midday heat.
+Afternoon: Engage in enjoyable recreational activities at Chebba plage, a recreation ground providing diverse options such as swimming, sunbathing, and playing games.
+Evening: Experience the culinary delights of Croissanterie Lilia, a 4.5-star-rated patisserie known for its delectable pastries, perfect for an indulgent evening treat.
+Night: Relax and unwind at a local spa or hotel, rejuvenating after a day of exploration and activities.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6014,12 +8528,61 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out DEL CAPO located at 64QC+H7H DEL CAPO, Chebba. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.640850251, -73.754701791. For more details, visit their website at https://www.google.com/maps/place/DEL+CAPO/data=!4m7!3m6!1s0x13018faac2eb4165:0x3bed09380af8092e!8m2!3d35.2389275!4d11.1207469!16s%2Fg%2F11rp6lh16c!19sChIJZUHrwqqPARMRLgn4CjgJ7Ts?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 451 770.</t>
+          <t>DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria in Chebba with a 4.5 rating and the perfect spot for Pizzeria enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija for its cultural significance and stunning architecture.
+Mid-Morning: Visit Plage SIR, a local museum, to learn about the cultural heritage of the area.
+Midday: Try local cuisine at MY STORY Coffee Resto, which has a high rating and positive customer reviews.
+Afternoon: Enjoy a relaxing walk along Chebba plage, a recreation ground with various activities and scenic views.
+Evening: Shop for souvenirs and local products at Marche swq lHwt, a fish and seafood market with a wide variety of options.
+Night: Experience the vibrant atmosphere of Bayethet chye7, a beach pavilion offering a serene setting and a chance to unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Waffle House is a popular cafe situated in Chebba, Tunisia, offering an array of delectable treats to tantalize your taste buds. Its precise location is at the coordinates (35.23722, 11.115), making it easily accessible to locals and visitors alike. With a rating of 5.0 stars, it has garnered much appreciation for its culinary delights and exceptional service.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.
+Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6121,14 +8684,61 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Des Jeunes mqhy lshbb located at 64H7+V78 Cafe Des Jeunes mqhy lshbb, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit https://www.google.com/maps/place/Caf%C3%A9+Des+Jeunes+%D9%85%D9%82%D9%87%D9%8A+%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x13018f1cea32df8b:0xc880780911d4fbfc!8m2!3d35.2296514!4d11.1131946!16s%2Fg%2F11gtf3p9nw!19sChIJi98y6hyPARMR_PvUEQl4gMg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Des Jeunes mqhy lshbb is a cafe located in chebba, Tunisia. It has 4.8 rating based on 4 reviews. The cafe is open everyday from 06:00 AM till 10:00 PM.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe in Chebba that offers a 4.8-star experience and is perfect for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Enjoy scenic views at Chebba Plage.
+Mid-Morning: Take a guided tour of Borj Khadija.
+Midday: Try local cuisine at Hdwt@ mSry@.
+Afternoon: Explore Plage SIR.
+Evening: Relax with a cup of coffee at Cafe Casino.
+Night: Participate in an event or activity at Port De Peche la Chebba.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Casino, located in Chebba (35.2418284, 11.1394077), is a popular cafe with a 4.0 rating. It boasts a cozy atmosphere and offers a variety of coffee and tea options, along with delectable pastries and a selection of light bites. Cafe Casino is a great spot to relax, socialize, or simply enjoy a delicious cup of coffee.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6234,12 +8844,61 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out mqh~ lnsym located at 64F6+F74 mqh~ lnsym, C82. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x130191bc2187f157:0x239bd25040a44c13!8m2!3d35.22363!4d11.11069!16s%2Fg%2F11h0c0b63p!19sChIJV_GHIbyRARMRE0ykQFDSmyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 026 517.</t>
+          <t>This cafe, mqh~ lnsym, is located in the city of chebba, Tunisia. It offers a cozy ambiance and a welcoming atmosphere, perfect for grabbing a coffee or tea and relaxing with friends. With a rating of 5.0 and four positive reviews, this cafe is highly recommended by its customers.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>If you're craving a delicious and highly-rated cafe experience in Chebba, what top-rated destination offers a variety of cafes to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the historic Borj Khadija, marveling at its stunning architecture and cultural significance.
+Mid-Morning: Indulge in a delightful breakfast at MY STORY Coffee Resto, savoring the local flavors.
+Midday: Head to the picturesque Cire Plage Chebba to soak up the sun, relax on the sandy shores, and relish the inviting ambiance.
+Afternoon: Engage in some retail therapy at Marche swq lHwt, a vibrant fish and seafood market, where you can experience the local culture and find fresh catches.
+Evening: Explore the culinary delights of La Cantine Royale, sampling authentic Tunisian dishes.
+Night: Experience the lively atmosphere of Red Flower, a cozy cafe perfect for socializing, enjoying refreshments, and immersing yourself in the local scene.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+La Cantine Royale is a restaurant located on Unnamed Road in La Chebba. It offers a variety of dishes and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant is open from 13:00 to 02:00 and is closed on . La Cantine Royale is located at the coordinates (35.2340156, 11.1138593).
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6349,12 +9008,67 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great pizza place, Pizzeria CHALET is the place to go. Located at 64PR+937 Pizzeria CHALET, La Chebba, this top-rated destination is the perfect spot for pizza lovers. With a rating of 5.0, it's a must-visit spot. With opening hours of Ouvert 24h/24, you can get your pizza fix anytime. To get there, use these GPS coordinates: 47.6706393, 6.5408951. For more details, visit their website at http://www.tayara.tn/ or call them at 28 598 027.</t>
+          <t>**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated pizza place with a 5.0 rating and 24/7 availability in Chebba?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical landmark Borj Khadija, renowned for its cultural significance and stunning architecture.
+Mid-Morning:
+- Visit the fish and seafood market, Marche swq lHwt, to experience the local flavors and fresh produce.
+Midday:
+- Indulge in delectable dining at Restaurant Le Voilier, offering a satisfying meal with picturesque views.
+Afternoon:
+- Enjoy a relaxing stroll along the scenic Chebba plage, with opportunities for swimming, sunbathing, or engaging in recreational activities.
+Evening:
+- Immerse yourself in the local ambiance at Cafe Jabeur, savoring a cup of coffee while experiencing the authentic atmosphere.
+Night:
+- Experience the vibrant nightlife at MY STORY Coffee Resto, known for its lively ambiance and delicious cuisine.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jabeur, situated in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe with a 4.0 rating. Open from 6 AM to 11 PM, this cafe serves as a great spot to relax and enjoy a cup of coffee while savoring the local ambiance.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6456,12 +9170,67 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great dining experience, look no further than La casa food. This highly-rated restaurant is a top choice for Restaurant lovers, offering a menu filled with delicious options. With a 4.5-star rating, it's a must-visit spot. To get there, head to 64RF+4H6 La casa food, Chebba. You can also call them at 26 676 432 for more information.</t>
+          <t>La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining spot with a 4.5-star rating in Chebba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+**Mid-Morning:**
+* Try local cuisine at one of Chebba's highly-rated restaurants, such as La Cabane, offering delicious meals with a 4.8-star rating.
+**Midday:**
+* Visit the Marche swq lHwt, a bustling fish and seafood market, offering unique culinary experiences.
+**Afternoon:**
+* Relax and enjoy scenic views at Plage SIR, a seaside destination with a 4.6-star rating.
+**Evening:**
+* Participate in a guided tour of Port La Chebba AL MARSSA, a marina with a picturesque setting on the Mediterranean Sea.
+**Night:**
+* Experience cultural immersion at the museum Plage SIR, which showcases the local heritage and history.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Des Jeunes mqhy lshbb is a highly-rated cafe located in La Chebba. Open daily from 6 am to 10 pm, this cozy spot offers a warm and welcoming ambiance for patrons to relax and enjoy their favorite beverages. With a score of 4.8 out of 5 based on 4 reviews, this cafe has earned a reputation for its excellent service and quality offerings.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6563,14 +9332,61 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Sportive located at 64P6+HQH Cafe Sportive, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Cafe Sportive is a cafe located in chebba at coordinates (35.237, 11.115). It is highly rated, with a score of 4.5 out of 5. The cafe is open on weekdays from 5 am to 10 pm and offers a variety of amenities, including free Wi-Fi and a comfortable atmosphere.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>What is the top-rated destination in Chebba that offers a wide selection of Cafe options and is located at 64P6+HQH Cafe Sportive, C82?</t>
+          <t>Day Plan:
+Morning: **Exploring the Chebba Fish Market (Marché swq lHwt)** to experience the vibrant local culture and discover the freshest seafood.
+Mid-Morning: **Trying local cuisine at MY STORY Coffee Resto**, renowned for its delicious coffee and pastries.
+Midday: **Visiting the historical Borj Khadija** to delve into the rich heritage of Chebba and admire its stunning architecture.
+Afternoon: **Enjoying swimming and sunbathing at Chebba Plage**, immersing in the beauty of the Mediterranean Sea and enjoying the lively atmosphere of the beach.
+Evening: **Experiencing the local nightlife at Red Flower** to socialize with the friendly locals and savor the vibrant atmosphere.
+Night: **Relaxing with a peaceful walk along the picturesque Port de Chebba**, taking in the breathtaking views of the harbor and enjoying the cool evening breeze.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6668,12 +9484,67 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Happy coffee day located at 64M6+F8W Happy coffee day, Unnamed Road. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>What's the name and address of the highly rated cafe destination in Chebba for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical significance of Borj Khadija, a 4.8-star rated landmark with stunning architecture.
+Mid-Morning:
+- Try local cuisine at "The King," a renowned restaurant offering a prime location and positive reviews.
+Midday:
+- Visit Plage SIR, a museum providing insights into the local history and culture.
+Afternoon:
+- Relax and rejuvenate at Cire Plage Chebba, a beach club offering top-notch service and delectable cuisine.
+Evening:
+- Enjoy scenic views at Marche swq lHwt, a fish and seafood market with positive reviews.
+Night:
+- Experience cultural immersion at MY STORY Coffee Resto, a highly rated tea room and restaurant known for its breakfast and local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6775,12 +9646,61 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Jet 7 cafer located at 63QW+4R5 Jet 7 cafer, C82, La Chebba. This must-visit spot has a rating of 5.0 and is perfect for Cafe lovers. It's open during these hours: 04:01-00:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Enjoy a 5-star coffee break at Jet 7 cafer, located at 63QW+4R5 Jet 7 cafer, C82, La Chebba. As one of the top-rated cafes in the area, Jet 7 cafer offers a wide range of coffee drinks and desserts in a cozy atmosphere. It's the perfect place to relax, recharge, and connect with friends.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe in Chebba with exceptional 5.0 ratings and convenient operating hours of 04:01-00:00?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Try local cuisine at the cozy Red Flower cafe. Savor a delightful blend of Tunisian flavors while enjoying the tranquil ambiance.
+Midday: Visit the Plage SIR museum and delve into the rich history and culture of the region.
+Afternoon: Enjoy recreational activities at Chebba plage. Take a refreshing swim in the crystal-clear waters, sunbathe on the sandy beach, or engage in various games.
+Evening: Embark on a shopping adventure at Marche swq lHwt, where you can discover a vibrant array of fresh seafood and local products.
+Night: Relax and unwind at Bayethet chye7 beach pavilion. Immerse yourself in the serene atmosphere and enjoy picturesque views of the Mediterranean coastline.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.
+Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6878,13 +9798,61 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Da Zinouba located at 64QV+8PG, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Da+Zinouba/data=!4m7!3m6!1s0x13018f278cb97d77:0xec9c40b710ca6ec4!8m2!3d35.2383012!4d11.1443334!16s%2Fg%2F11nnr_qwzd!19sChIJd325jCePARMRxG7KELdAnOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>If you're in Chebba and craving delicious pizzas, where would you go to experience a top-rated eatery praised for its Pizzeria offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of Borj Khadija, immerse yourself in its cultural significance.
+Mid-Morning: Indulge in local cuisine at the highly-rated MY STORY Coffee Resto, savor authentic flavors.
+Midday: Visit the picturesque Plage SIR museum, discover its intriguing exhibits and learn about the history of Plage SIR.
+Afternoon: Escape to Cire Plage Chebba, unwind on the captivating beach, and enjoy the exceptional service and ambiance.
+Evening: Embark on a guided tour of Port de Chebba, witness the bustling activities, and capture stunning views of the harbor.
+Night: Experience the vibrant nightlife at La Cantine Royale, savor delectable dishes and immerse yourself in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6986,12 +9954,61 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Hdwt@ mSry@ located at 64M7+MF6 Hdwt@ mSry@, La Chebba. This top-rated destination is a Restaurant. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-00:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>What highly-rated destination with 5.0 stars awaits you in La Chebba, offering a culinary experience from 5 PM to midnight?</t>
+          <t>Day Plan:
+Morning: Explore Borj Khadija, a historical landmark with stunning architecture.
+Mid-Morning: Visit Plage SIR, a museum in Plage SIR, La Chebba, Tunisia.
+Midday: Try local cuisine at MY STORY Coffee Resto, a tea room known for its positive reviews and friendly atmosphere.
+Afternoon: Enjoy scenic views at Chebba plage, a recreation ground that offers swimming, sunbathing, and picnic areas.
+Evening: Relax with a massage at Beach Lodge, a 4.4-rated hotel in Chebba, Tunisia.
+Night: Participate in a guided tour of Port De Peche la Chebba, a marina located in chebba, Tunisia with a rating of 4.7 stars.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7089,12 +10106,61 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for great food, check out Chahia Chick'n Box located at 64P9+V2H Chahia Chick'n Box, La Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Chahia+Chick%27n+Box/data=!4m7!3m6!1s0x13018f860eadc43d:0xa91313b760af05d3!8m2!3d35.2371864!4d11.1176122!16s%2Fg%2F11t6y7v1rt!19sChIJPcStDoaPARMR0wWvYLcTE6k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining destination in Chahia with GPS coordinates of 35.23722, 11.115?</t>
+          <t>Day Plan:
+Morning: Exploring Borj Khadija, a historical landmark known for its cultural significance and stunning architecture.
+Mid-Morning: Trying local cuisine at MY STORY Coffee Resto, a tea room rated 4.6 stars by its customers, open everyday from 8:30AM until midnight.
+Midday: Enjoying scenic views at Plage SIR, a museum located in Plage SIR, La Chebba, Tunisia, offering a rating of 4.6 based on 10 reviews.
+Afternoon: Shopping at Marche swq lHwt, a fish and seafood market operating from 07:00 to 16:00 every day, rated 3.9 from 13 reviews.
+Evening: Trying local cuisine at Pizzeria CHALET, a pizzeria located in La Chebba, Tunisia, open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes, rated 5.0 out of 5 stars on Google Maps.
+Night: Enjoying scenic views at Port La Chebba AL MARSSA, a marina located in Raoued, Tunisia, featuring a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cantine Royale is a restaurant located on Unnamed Road in La Chebba. It offers a variety of dishes and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant is open from 13:00 to 02:00 and is closed on . La Cantine Royale is located at the coordinates (35.2340156, 11.1138593).
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7188,14 +10254,61 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Borj located at 65P3+V57 Borj, plage. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>The Borj is a 5-star rated cafe located at 65P3+V57 Borj, plage, La Chebba. It's coordinates are (35.23722, 11.115). Unfortunately, there is no additional information available about its services or offerings.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated cafe destination in Chebba that offers a variety of cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of Borj Khadija, renowned for its cultural significance and stunning architecture.
+Mid-Morning: Indulge in the local cuisine at MY STORY Coffee Resto, a 4.6-star tea room known for its delicious offerings.
+Midday: Visit the Chebba 5170 school, a highly-rated educational institution with positive reviews and a 24-hour operation.
+Afternoon: Enjoy the scenic beauty of Chebba plage, a recreational ground offering swimming, sunbathing, and various activities for visitors.
+Evening: Head to the Port de Chebba, a port with a 4.4 rating and providing access to local attractions and amenities.
+Night: Relax and rejuvenate at Cire Plage Chebba, a captivating beach club with exceptional service, delectable cuisine, and an inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Jet 7 cafer is a 5-star rated cafe in Chebba, Tunisia. Situated at the coordinates (35.23722, 11.115), it is accessible through the link provided above.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.
+Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7293,12 +10406,67 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out mshwy `l~ kyfk located at 64P4+4XQ mshwy `l~ kyfk. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D8%B9%D9%84%D9%89+%D9%83%D9%8A%D9%81%D9%83%E2%80%AD/data=!4m7!3m6!1s0x13018f71d79e3eb3:0x6483cfc5ca60f631!8m2!3d35.2353396!4d11.1074804!16s%2Fg%2F11s3clmwjy!19sChIJsz6e13GPARMRMfZgysXPg2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you go in Chebba for a highly-rated restaurant experience?</t>
+          <t>Day Plan:
+Morning:
+- Explore **Borj Khadija**, a historical landmark with stunning architecture and cultural significance.
+Mid-Morning:
+- Try local cuisine at **La Cabane**, a highly-rated restaurant offering delicious meals with a 4.8-star rating.
+Midday:
+- Visit **Plage SIR**, a museum showcasing the area's history and culture, with a rating of 4.6 based on 10 reviews.
+Afternoon:
+- Enjoy the sun and water at **Chebba plage**, a recreation ground with swimming, sunbathing, and picnic areas.
+Evening:
+- Experience cultural immersion at **MY STORY Coffee Resto**, a tea room with a 4.6-star rating, serving traditional tea and snacks.
+Night:
+- Relax and soak in the cozy atmosphere at **Cafe Sportive**, a highly-rated cafe with delicious coffee and snacks, open until 10 PM.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7404,12 +10572,61 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out La charlotte located at 65P4+28V La charlotte, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe lovers and has a rating of 4.0, making it a must-visit spot. For more details, visit their website at https://www.facebook.com/lacharlotte21 or call them at 28 689 982.</t>
+          <t>La Charlotte is located on Unnamed Road in La Chebba, Tunisia. It is a cafe that offers a variety of food and drinks. It has a rating of 4.0 and is open 7 days a week.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe called La charlotte in the Chebba area?</t>
+          <t>Day Plan:
+Morning: Explore the historical Borj Khadija, a well-preserved fort with stunning architecture.
+Mid-Morning: Indulge in a delicious local breakfast at the top-rated Cafe La Belle Vue, known for its warm ambiance and excellent service.
+Midday: Visit the Chebba plage, a beautiful beach spot perfect for swimming, sunbathing, or enjoying a picnic with friends and family.
+Afternoon: Take a guided tour of Port de Chebba, a lively port area where you can witness the local fishing industry and admire the docked boats.
+Evening: Savor a delightful dinner at The King restaurant, which offers a wide selection of cuisines in a welcoming atmosphere.
+Night: Experience the vibrant nightlife at Plage SIR, a beachside museum known for its live music and cultural events.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.
+DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7511,12 +10728,61 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a delightful Cafe experience, visit Red Flower located at 64P3+259 Red Flower, C82. Rated an impressive 5.0, it's perfect for Cafe lovers and offers a cozy ambiance. Open from 07:00-00:30 during weekdays, this must-visit spot is accessible via GPS coordinates 35.23722, 11.115. For more information and stunning visuals, check out their featured image at https://lh5.googleusercontent.com/p/AF1QipNfsgXPcfgPNkd7ERMRWKItz2vASiVM0nIbGdSx=w408-h725-k-no.</t>
+          <t>Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Chebba can you find the highly-rated Red Flower Café, known for its cozy ambiance and 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Borj Khadija, known for its cultural significance and stunning architecture.
+Mid-Morning: Visit the local fish and seafood market, Marche swq lHwt, from 07:00 to 16:00 daily to experience the vibrant atmosphere and sample the freshest catches of the day.
+Midday: Try the local cuisine at MY STORY Coffee Resto, a highly-rated tea room offering a delightful menu and a cozy ambiance.
+Afternoon: Enjoy the sun and sea at Plage SIR, a renowned museum with a scenic beachfront location. Relax on the sandy shores, take a refreshing dip, or stroll along the picturesque promenade.
+Evening: Indulge in delicious pizzas and authentic Tunisian flavors at Pizzeria Khadija, a local favorite known for its excellent pizzas and warm hospitality.
+Night: Experience the lively ambiance and dance the night away at La Cabane, a popular restaurant offering delicious meals and a vibrant atmosphere with live music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jabeur, situated in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe with a 4.0 rating. Open from 6 AM to 11 PM, this cafe serves as a great spot to relax and enjoy a cup of coffee while savoring the local ambiance.
+MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.
+La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).
+Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7614,14 +10880,61 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Station de louage Chebba located at Station de louage Chebba, La Chebba. 
-This top-rated destination is perfect for mHT@ Hflt lovers and offers a range of mHT@ Hflt to choose from. 
-With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.2366422, 11.1126361. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+Chebba/@35.2367124,11.1128195,17z/data=!3m1!4b1!4m6!3m5!1s0x13018e2db1b67d13:0xc9ac46ef8c537b23!8m2!3d35.2367124!4d11.1128195!16s%2Fg%2F1hjh0dptn?authuser=0&amp;entry=ttu or call them at nan.</t>
+          <t>Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Chebba can you engage in thrilling motor racing activities with highly rated options to choose from?</t>
+          <t>Day Plan:
+Morning: Explore Plage SIR
+Mid-Morning: Try local cuisine at Cafe amigos or MY STORY Coffee Resto
+Midday: Visit Borj Khadija
+Afternoon: Enjoy swimming and sunbathing at Cire Plage Chebba
+Evening: Relax with a scenic walk along Chebba plage
+Night: Experience the nightlife at Pizzeria CHALET</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe amigos is a cafe located in La Chebba, Tunisia. It is rated 4.3 out of 5 stars based on 3 reviews. The cafe offers a variety of food and drinks, and is open from 8am to 10pm every day. The cafe is located at 64H7+94R, La Chebba, and can be contacted by phone at +216 98 740 851.
+MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.
+Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.
+**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.
+Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.
+Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.
+Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.
+Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.
+Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.
+Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.
+Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.
+Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.
+Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.
+Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1
+**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).
+Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
